--- a/ArduPlane/mavlink_cmd.xlsx
+++ b/ArduPlane/mavlink_cmd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_code\ArduPilot\Plane-4.3.5-Landun\ardupilot\ArduPlane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DEEEB8-31DA-494D-9307-050FA9377F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D359A9A7-901E-4351-B33C-F0E88EADA920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="7440" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26904" yWindow="9576" windowWidth="20052" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t xml:space="preserve">MAVLINK_MSG_ID_COMMAND_LONG </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,32 +71,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置队形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：不编队
-1：编队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>队形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>控制飞行模式
-先设置cruise后生效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：上升10m
-2：下降10m
-3：左转30度
-4：右转30度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编队间距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上升10m</t>
+  </si>
+  <si>
+    <t>下降10m</t>
+  </si>
+  <si>
+    <t>左转30度</t>
+  </si>
+  <si>
+    <t>右转30度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降落</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,16 +180,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -444,104 +487,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="72.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
